--- a/biology/Médecine/Membrane_quadrangulaire/Membrane_quadrangulaire.xlsx
+++ b/biology/Médecine/Membrane_quadrangulaire/Membrane_quadrangulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La membrane quadrangulaire est la partie de la membrane fibro-élastique du larynx qui est tendue entre le bord latéral du cartilage épiglottique et le ligament vestibulaire.
 Son bord supérieur libre descend obliquement en arrière entre le cartilage épiglottique et la face antéro-latérale du cartilage aryténoïde.
